--- a/CipherSuiteTestResults.xlsx
+++ b/CipherSuiteTestResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\Projects\SecurityTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\Projects\FSDemoApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -523,60 +523,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -864,8 +815,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CipherSuiteTestResults.xlsx
+++ b/CipherSuiteTestResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22770" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22770" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="142">
   <si>
     <t>TLS_ECDHE_RSA_WITH_AES_128_CBC_SHA256</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Authentication Index</t>
   </si>
   <si>
-    <t>Authentication Value</t>
-  </si>
-  <si>
     <t>Encryption Index</t>
   </si>
   <si>
@@ -442,6 +439,21 @@
   </si>
   <si>
     <t>Cipher</t>
+  </si>
+  <si>
+    <t>Word before WITH</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>anon</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,25 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,16 +503,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,174 +804,172 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="7" width="16.140625" customWidth="1"/>
+    <col min="2" max="7" width="16.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" customWidth="1"/>
     <col min="16" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="45.85546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" customWidth="1"/>
     <col min="20" max="20" width="45.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="3" customWidth="1"/>
     <col min="22" max="22" width="45" customWidth="1"/>
     <col min="23" max="23" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="3" customWidth="1"/>
     <col min="25" max="25" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42.85546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="1.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="1.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <f>FIND("_",$A2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <f>FIND("_",$A2,B2+1)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <f>FIND("_",$A2,C2+1)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" t="str">
         <f t="shared" ref="E2:E33" si="0">MID($A2, C2+1,D2-C2-1)</f>
         <v>anon</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <f>FIND("_WITH_",$A2)+5</f>
         <v>24</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <f>FIND("~",SUBSTITUTE(A2,"_","~",LEN(A2)-LEN(SUBSTITUTE(A2,"_",""))))</f>
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" t="str">
         <f>MID($A2, 1,B2-1)</f>
         <v>SSL</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" t="str">
         <f>MID($A2, B2+1,C2-B2-1)</f>
         <v>DH</v>
       </c>
-      <c r="J2" s="8" t="str">
-        <f t="shared" ref="J2:J65" si="1">IF(OR(E2="anon",E2="with",E2="EXPORT"),"NULL",E2)</f>
-        <v>NULL</v>
-      </c>
-      <c r="K2" s="8" t="str">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J4" si="1">IF(OR(E2="WITH",E2="EXPORT"),$I2,IF(E2="ANON","None",E2))</f>
+        <v>None</v>
+      </c>
+      <c r="K2" t="str">
         <f>MID($A2, F2+1,G2-F2-1)</f>
         <v>DES40_CBC</v>
       </c>
-      <c r="L2" s="8" t="str">
+      <c r="L2" t="str">
         <f>MID(A2, G2+1,10)</f>
         <v>SHA</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="str">
+      <c r="N2" t="str">
         <f t="shared" ref="N2:N33" si="2">IF(ISERROR(MATCH($A2,AB:AB, 0)),"","Y")</f>
         <v/>
       </c>
-      <c r="O2" s="8" t="str">
+      <c r="O2" t="str">
         <f t="shared" ref="O2:O33" si="3">IF(ISERROR(MATCH($A2,S:S, 0)),"","Y")</f>
         <v/>
       </c>
-      <c r="P2" s="8" t="str">
+      <c r="P2" t="str">
         <f t="shared" ref="P2:P33" si="4">IF(ISERROR(MATCH($A2,V:V, 0)),"","Y")</f>
         <v/>
       </c>
-      <c r="Q2" s="8" t="str">
+      <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q33" si="5">IF(ISERROR(MATCH($A2,Y:Y, 0)),"","Y")</f>
         <v/>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
       <c r="T2" t="s">
@@ -1005,71 +992,70 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <f t="shared" ref="B3:B65" si="6">FIND("_",$A3)</f>
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <f t="shared" ref="C3:D65" si="7">FIND("_",$A3,B3+1)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>anon</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <f t="shared" ref="F3:F65" si="8">FIND("_WITH_",$A3)+5</f>
         <v>24</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <f t="shared" ref="G3:G65" si="9">FIND("~",SUBSTITUTE(A3,"_","~",LEN(A3)-LEN(SUBSTITUTE(A3,"_",""))))</f>
         <v>31</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" t="str">
         <f t="shared" ref="H3:H65" si="10">MID(A3,1,FIND("_",A3)-1)</f>
         <v>SSL</v>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="I3" t="str">
         <f t="shared" ref="I3:I65" si="11">MID($A3, B3+1,C3-B3-1)</f>
         <v>DH</v>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="J3" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K3" s="8" t="str">
+        <v>None</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K65" si="12">MID($A3, F3+1,G3-F3-1)</f>
         <v>RC4_40</v>
       </c>
-      <c r="L3" s="8" t="str">
+      <c r="L3" t="str">
         <f t="shared" ref="L3:L65" si="13">MID(A3, G3+1,10)</f>
         <v>MD5</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P3" s="8" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q3" s="8" t="str">
+      <c r="Q3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" t="s">
         <v>25</v>
       </c>
       <c r="T3" t="s">
@@ -1129,7 +1115,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
+        <v>None</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="12"/>
@@ -1155,7 +1141,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" t="s">
         <v>22</v>
       </c>
       <c r="T4" t="s">
@@ -1214,8 +1200,8 @@
         <v>DH</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f>IF(OR(E5="WITH",E5="EXPORT"),$I5,IF(E5="ANON","None",E5))</f>
+        <v>None</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="12"/>
@@ -1241,7 +1227,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" t="s">
         <v>11</v>
       </c>
       <c r="T5" t="s">
@@ -1300,8 +1286,8 @@
         <v>DH</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" ref="J6:J69" si="14">IF(OR(E6="WITH",E6="EXPORT"),$I6,IF(E6="ANON","None",E6))</f>
+        <v>None</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="12"/>
@@ -1327,7 +1313,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
@@ -1350,71 +1336,70 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>DSS</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="10"/>
         <v>SSL</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="11"/>
         <v>DHE</v>
       </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="J7" t="str">
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="12"/>
         <v>DES40_CBC</v>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O7" s="8" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P7" s="8" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q7" s="8" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" t="s">
         <v>10</v>
       </c>
       <c r="T7" t="s">
@@ -1473,7 +1458,7 @@
         <v>DHE</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
       <c r="K8" t="str">
@@ -1500,7 +1485,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" t="s">
         <v>23</v>
       </c>
       <c r="T8" t="s">
@@ -1559,7 +1544,7 @@
         <v>DHE</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
       <c r="K9" t="str">
@@ -1586,7 +1571,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" t="s">
         <v>30</v>
       </c>
       <c r="T9" t="s">
@@ -1645,7 +1630,7 @@
         <v>DHE</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K10" t="str">
@@ -1672,7 +1657,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" t="s">
         <v>28</v>
       </c>
       <c r="T10" t="s">
@@ -1731,7 +1716,7 @@
         <v>DHE</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K11" t="str">
@@ -1758,7 +1743,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" t="s">
         <v>20</v>
       </c>
       <c r="T11" t="s">
@@ -1817,7 +1802,7 @@
         <v>DHE</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K12" t="str">
@@ -1844,7 +1829,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" t="s">
         <v>19</v>
       </c>
       <c r="T12" t="s">
@@ -1864,71 +1849,70 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>EXPORT</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="10"/>
         <v>SSL</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="11"/>
         <v>RSA</v>
       </c>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K13" s="8" t="str">
+      <c r="J13" t="str">
+        <f t="shared" si="14"/>
+        <v>RSA</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="12"/>
         <v>DES40_CBC</v>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" t="s">
         <v>15</v>
       </c>
       <c r="T13" t="s">
@@ -1948,71 +1932,70 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>EXPORT</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="10"/>
         <v>SSL</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="11"/>
         <v>RSA</v>
       </c>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K14" s="8" t="str">
+      <c r="J14" t="str">
+        <f t="shared" si="14"/>
+        <v>RSA</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="12"/>
         <v>RC4_40</v>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="13"/>
         <v>MD5</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" t="s">
         <v>13</v>
       </c>
       <c r="T14" t="s">
@@ -2068,8 +2051,8 @@
         <v>RSA</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="12"/>
@@ -2095,7 +2078,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" t="s">
         <v>12</v>
       </c>
       <c r="T15" t="s">
@@ -2151,8 +2134,8 @@
         <v>RSA</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="12"/>
@@ -2178,7 +2161,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" t="s">
         <v>5</v>
       </c>
       <c r="T16" t="s">
@@ -2234,8 +2217,8 @@
         <v>RSA</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="12"/>
@@ -2261,7 +2244,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" t="s">
         <v>2</v>
       </c>
       <c r="T17" t="s">
@@ -2314,8 +2297,8 @@
         <v>RSA</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="12"/>
@@ -2341,7 +2324,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" t="s">
         <v>8</v>
       </c>
       <c r="T18" t="s">
@@ -2394,8 +2377,8 @@
         <v>RSA</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="12"/>
@@ -2421,7 +2404,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" t="s">
         <v>16</v>
       </c>
       <c r="T19" t="s">
@@ -2474,8 +2457,8 @@
         <v>RSA</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="12"/>
@@ -2501,7 +2484,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" t="s">
         <v>14</v>
       </c>
       <c r="T20" t="s">
@@ -2554,8 +2537,8 @@
         <v>DH</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="12"/>
@@ -2581,7 +2564,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" t="s">
         <v>29</v>
       </c>
       <c r="T21" t="s">
@@ -2634,8 +2617,8 @@
         <v>DH</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="12"/>
@@ -2661,7 +2644,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" t="s">
         <v>21</v>
       </c>
       <c r="T22" t="s">
@@ -2714,8 +2697,8 @@
         <v>DH</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="12"/>
@@ -2741,7 +2724,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" t="s">
         <v>9</v>
       </c>
       <c r="T23" t="s">
@@ -2794,7 +2777,7 @@
         <v>DHE</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
       <c r="K24" t="str">
@@ -2821,7 +2804,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" t="s">
         <v>3</v>
       </c>
       <c r="T24" t="s">
@@ -2871,7 +2854,7 @@
         <v>DHE</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
       <c r="K25" t="str">
@@ -2898,7 +2881,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" t="s">
         <v>0</v>
       </c>
       <c r="T25" t="s">
@@ -2948,7 +2931,7 @@
         <v>DHE</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>DSS</v>
       </c>
       <c r="K26" t="str">
@@ -2975,7 +2958,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" t="s">
         <v>6</v>
       </c>
       <c r="T26" t="s">
@@ -3025,7 +3008,7 @@
         <v>DHE</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K27" t="str">
@@ -3052,7 +3035,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" t="s">
         <v>27</v>
       </c>
       <c r="T27" t="s">
@@ -3102,7 +3085,7 @@
         <v>DHE</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K28" t="str">
@@ -3129,7 +3112,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" t="s">
         <v>18</v>
       </c>
       <c r="T28" t="s">
@@ -3179,7 +3162,7 @@
         <v>DHE</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K29" t="str">
@@ -3206,7 +3189,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" t="s">
         <v>4</v>
       </c>
       <c r="T29" t="s">
@@ -3256,8 +3239,8 @@
         <v>ECDH</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="12"/>
@@ -3283,7 +3266,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" t="s">
         <v>1</v>
       </c>
       <c r="T30" t="s">
@@ -3333,8 +3316,8 @@
         <v>ECDH</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="12"/>
@@ -3360,7 +3343,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" t="s">
         <v>7</v>
       </c>
       <c r="T31" t="s">
@@ -3410,8 +3393,8 @@
         <v>ECDH</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="12"/>
@@ -3437,7 +3420,7 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" t="s">
         <v>26</v>
       </c>
       <c r="T32" t="s">
@@ -3487,8 +3470,8 @@
         <v>ECDH</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>None</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="12"/>
@@ -3541,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E64" si="14">MID($A34, C34+1,D34-C34-1)</f>
+        <f t="shared" ref="E34:E64" si="15">MID($A34, C34+1,D34-C34-1)</f>
         <v>ECDSA</v>
       </c>
       <c r="F34">
@@ -3561,7 +3544,7 @@
         <v>ECDH</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K34" t="str">
@@ -3573,19 +3556,19 @@
         <v>SHA</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34:N64" si="15">IF(ISERROR(MATCH($A34,AB:AB, 0)),"","Y")</f>
+        <f t="shared" ref="N34:N64" si="16">IF(ISERROR(MATCH($A34,AB:AB, 0)),"","Y")</f>
         <v/>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34:O64" si="16">IF(ISERROR(MATCH($A34,S:S, 0)),"","Y")</f>
+        <f t="shared" ref="O34:O64" si="17">IF(ISERROR(MATCH($A34,S:S, 0)),"","Y")</f>
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ref="P34:P64" si="17">IF(ISERROR(MATCH($A34,V:V, 0)),"","Y")</f>
+        <f t="shared" ref="P34:P64" si="18">IF(ISERROR(MATCH($A34,V:V, 0)),"","Y")</f>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ref="Q34:Q64" si="18">IF(ISERROR(MATCH($A34,Y:Y, 0)),"","Y")</f>
+        <f t="shared" ref="Q34:Q64" si="19">IF(ISERROR(MATCH($A34,Y:Y, 0)),"","Y")</f>
         <v>Y</v>
       </c>
       <c r="T34" t="s">
@@ -3615,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F35">
@@ -3635,7 +3618,7 @@
         <v>ECDH</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K35" t="str">
@@ -3647,19 +3630,19 @@
         <v>SHA</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="T35" t="s">
@@ -3689,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F36">
@@ -3709,7 +3692,7 @@
         <v>ECDH</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K36" t="str">
@@ -3721,19 +3704,19 @@
         <v>SHA256</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="T36" t="s">
@@ -3763,7 +3746,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F37">
@@ -3783,7 +3766,7 @@
         <v>ECDH</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K37" t="str">
@@ -3795,19 +3778,19 @@
         <v>SHA256</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="T37" t="s">
@@ -3837,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F38">
@@ -3857,7 +3840,7 @@
         <v>ECDH</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K38" t="str">
@@ -3869,19 +3852,19 @@
         <v>SHA</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="T38" t="s">
@@ -3911,7 +3894,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F39">
@@ -3931,7 +3914,7 @@
         <v>ECDH</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K39" t="str">
@@ -3943,19 +3926,19 @@
         <v>SHA</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="T39" t="s">
@@ -3969,434 +3952,428 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" t="str">
+        <f t="shared" si="15"/>
+        <v>RSA</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="10"/>
+        <v>TLS</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="11"/>
+        <v>ECDH</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
-      <c r="F40" s="7">
+      <c r="K40" t="str">
+        <f t="shared" si="12"/>
+        <v>3DES_EDE_CBC</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="13"/>
+        <v>SHA</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="T40" t="s">
+        <v>64</v>
+      </c>
+      <c r="W40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="15"/>
+        <v>RSA</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="H40" s="7" t="str">
+        <v>30</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I40" s="7" t="str">
+      <c r="I41" t="str">
         <f t="shared" si="11"/>
         <v>ECDH</v>
       </c>
-      <c r="J40" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="J41" t="str">
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
-      <c r="K40" s="7" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="12"/>
-        <v>3DES_EDE_CBC</v>
-      </c>
-      <c r="L40" s="7" t="str">
+        <v>AES_128_CBC</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7" t="str">
+      <c r="N41" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="T41" t="s">
+        <v>63</v>
+      </c>
+      <c r="W41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P40" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q40" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T40" t="s">
-        <v>64</v>
-      </c>
-      <c r="W40" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C41" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D41" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="E41" s="7" t="str">
+        <v>RSA</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="10"/>
+        <v>TLS</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="11"/>
+        <v>ECDH</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
-      <c r="F41" s="7">
+      <c r="K42" t="str">
+        <f t="shared" si="12"/>
+        <v>AES_128_CBC</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="13"/>
+        <v>SHA256</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="15"/>
+        <v>RSA</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G43">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H41" s="7" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I43" t="str">
         <f t="shared" si="11"/>
         <v>ECDH</v>
       </c>
-      <c r="J41" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="J43" t="str">
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
-      <c r="K41" s="7" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="12"/>
-        <v>AES_128_CBC</v>
-      </c>
-      <c r="L41" s="7" t="str">
+        <v>AES_128_GCM</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="13"/>
+        <v>SHA256</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="15"/>
+        <v>RSA</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="10"/>
+        <v>TLS</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="11"/>
+        <v>ECDH</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="14"/>
+        <v>RSA</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="12"/>
+        <v>NULL</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7" t="str">
+      <c r="N44" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P41" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q41" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T41" t="s">
-        <v>63</v>
-      </c>
-      <c r="W41" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C42" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D42" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="E42" s="7" t="str">
+        <v>RSA</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="10"/>
+        <v>TLS</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="11"/>
+        <v>ECDH</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="H42" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>TLS</v>
-      </c>
-      <c r="I42" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>ECDH</v>
-      </c>
-      <c r="J42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>RSA</v>
-      </c>
-      <c r="K42" s="7" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="12"/>
-        <v>AES_128_CBC</v>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>SHA256</v>
-      </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P42" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q42" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="W42" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C43" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="E43" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>RSA</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="H43" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>TLS</v>
-      </c>
-      <c r="I43" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>ECDH</v>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>RSA</v>
-      </c>
-      <c r="K43" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>AES_128_GCM</v>
-      </c>
-      <c r="L43" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>SHA256</v>
-      </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O43" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P43" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q43" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="W43" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C44" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D44" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="E44" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>RSA</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>TLS</v>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>ECDH</v>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>RSA</v>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>NULL</v>
-      </c>
-      <c r="L44" s="7" t="str">
+        <v>RC4_128</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O44" s="7" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P44" s="7" t="str">
+      <c r="O45" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q44" s="7" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="W44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="7">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C45" s="7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D45" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="E45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>RSA</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="G45" s="7">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="H45" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>TLS</v>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>ECDH</v>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>RSA</v>
-      </c>
-      <c r="K45" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>RC4_128</v>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>SHA</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P45" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q45" s="7" t="str">
-        <f t="shared" si="18"/>
+      <c r="Q45" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W45" t="s">
@@ -4423,7 +4400,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F46">
@@ -4443,7 +4420,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K46" t="str">
@@ -4455,19 +4432,19 @@
         <v>SHA</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W46" t="s">
@@ -4494,7 +4471,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F47">
@@ -4514,7 +4491,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K47" t="str">
@@ -4526,19 +4503,19 @@
         <v>SHA</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W47" t="s">
@@ -4565,7 +4542,7 @@
         <v>16</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F48">
@@ -4585,7 +4562,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K48" t="str">
@@ -4597,19 +4574,19 @@
         <v>SHA256</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W48" t="s">
@@ -4636,7 +4613,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F49">
@@ -4656,7 +4633,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K49" t="str">
@@ -4668,19 +4645,19 @@
         <v>SHA256</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W49" t="s">
@@ -4707,7 +4684,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F50">
@@ -4727,7 +4704,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K50" t="str">
@@ -4739,19 +4716,19 @@
         <v>SHA</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W50" t="s">
@@ -4778,7 +4755,7 @@
         <v>16</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ECDSA</v>
       </c>
       <c r="F51">
@@ -4798,7 +4775,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>ECDSA</v>
       </c>
       <c r="K51" t="str">
@@ -4810,19 +4787,19 @@
         <v>SHA</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Y</v>
       </c>
       <c r="W51" t="s">
@@ -4846,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F52">
@@ -4866,7 +4843,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K52" t="str">
@@ -4878,19 +4855,19 @@
         <v>SHA</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W52" t="s">
@@ -4914,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F53">
@@ -4934,7 +4911,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K53" t="str">
@@ -4946,19 +4923,19 @@
         <v>SHA</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W53" t="s">
@@ -4982,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F54">
@@ -5002,7 +4979,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K54" t="str">
@@ -5014,19 +4991,19 @@
         <v>SHA256</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W54" t="s">
@@ -5050,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F55">
@@ -5070,7 +5047,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K55" t="str">
@@ -5082,19 +5059,19 @@
         <v>SHA256</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W55" t="s">
@@ -5118,7 +5095,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F56">
@@ -5138,7 +5115,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K56" t="str">
@@ -5150,19 +5127,19 @@
         <v>SHA</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W56" t="s">
@@ -5186,7 +5163,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>RSA</v>
       </c>
       <c r="F57">
@@ -5206,7 +5183,7 @@
         <v>ECDHE</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>RSA</v>
       </c>
       <c r="K57" t="str">
@@ -5218,19 +5195,19 @@
         <v>SHA</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Y</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W57" t="s">
@@ -5238,662 +5215,652 @@
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E58" s="6" t="str">
-        <f t="shared" si="14"/>
+      <c r="E58" t="str">
+        <f t="shared" si="15"/>
         <v>EXPORT</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="H58" s="6" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K58" s="6" t="str">
+      <c r="J58" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="12"/>
         <v>DES_CBC_40</v>
       </c>
-      <c r="L58" s="6" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="13"/>
         <v>MD5</v>
       </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6" t="str">
+      <c r="N58" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="E59" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O58" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P58" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q58" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C59" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D59" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="E59" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>EXPORT</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="H59" s="6" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K59" s="6" t="str">
+      <c r="J59" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K59" t="str">
         <f t="shared" si="12"/>
         <v>DES_CBC_40</v>
       </c>
-      <c r="L59" s="6" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6" t="str">
+      <c r="N59" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="E60" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O59" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P59" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q59" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="E60" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>EXPORT</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="H60" s="6" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K60" s="6" t="str">
+      <c r="J60" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K60" t="str">
         <f t="shared" si="12"/>
         <v>RC4_40</v>
       </c>
-      <c r="L60" s="6" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="13"/>
         <v>MD5</v>
       </c>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6" t="str">
+      <c r="N60" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="E61" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O60" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P60" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q60" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="E61" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>EXPORT</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="H61" s="6" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K61" s="6" t="str">
+      <c r="J61" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K61" t="str">
         <f t="shared" si="12"/>
         <v>RC4_40</v>
       </c>
-      <c r="L61" s="6" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6" t="str">
+      <c r="N61" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O61" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P61" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q61" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D62" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="E62" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>WITH</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="H62" s="6" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K62" s="6" t="str">
+      <c r="J62" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K62" t="str">
         <f t="shared" si="12"/>
         <v>3DES_EDE_CBC</v>
       </c>
-      <c r="L62" s="6" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="13"/>
         <v>MD5</v>
       </c>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6" t="str">
+      <c r="N62" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O62" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P62" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q62" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C63" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D63" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="E63" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>WITH</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="H63" s="6" t="str">
+      <c r="H63" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K63" s="6" t="str">
+      <c r="J63" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K63" t="str">
         <f t="shared" si="12"/>
         <v>3DES_EDE_CBC</v>
       </c>
-      <c r="L63" s="6" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6" t="str">
+      <c r="N63" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="E64" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O63" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P63" s="6" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q63" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C64" s="6">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="D64" s="6">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="E64" s="6" t="str">
-        <f t="shared" si="14"/>
         <v>WITH</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="H64" s="6" t="str">
+      <c r="H64" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K64" s="6" t="str">
+      <c r="J64" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K64" t="str">
         <f t="shared" si="12"/>
         <v>DES_CBC</v>
       </c>
-      <c r="L64" s="6" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="13"/>
         <v>MD5</v>
       </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O64" s="6" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P64" s="6" t="str">
+      <c r="O64" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q64" s="6" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="E65" s="6" t="str">
-        <f t="shared" ref="E65:E72" si="19">MID($A65, C65+1,D65-C65-1)</f>
+      <c r="E65" t="str">
+        <f t="shared" ref="E65:E72" si="20">MID($A65, C65+1,D65-C65-1)</f>
         <v>WITH</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="H65" s="6" t="str">
+      <c r="H65" t="str">
         <f t="shared" si="10"/>
         <v>TLS</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" t="str">
         <f t="shared" si="11"/>
         <v>KRB5</v>
       </c>
-      <c r="J65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="K65" s="6" t="str">
+      <c r="J65" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K65" t="str">
         <f t="shared" si="12"/>
         <v>DES_CBC</v>
       </c>
-      <c r="L65" s="6" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="13"/>
         <v>SHA</v>
       </c>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6" t="str">
-        <f t="shared" ref="N65:N72" si="20">IF(ISERROR(MATCH($A65,AB:AB, 0)),"","Y")</f>
-        <v/>
-      </c>
-      <c r="O65" s="6" t="str">
-        <f t="shared" ref="O65:O72" si="21">IF(ISERROR(MATCH($A65,S:S, 0)),"","Y")</f>
-        <v/>
-      </c>
-      <c r="P65" s="6" t="str">
-        <f t="shared" ref="P65:P72" si="22">IF(ISERROR(MATCH($A65,V:V, 0)),"","Y")</f>
-        <v/>
-      </c>
-      <c r="Q65" s="6" t="str">
-        <f t="shared" ref="Q65:Q72" si="23">IF(ISERROR(MATCH($A65,Y:Y, 0)),"","Y")</f>
+      <c r="N65" t="str">
+        <f t="shared" ref="N65:N72" si="21">IF(ISERROR(MATCH($A65,AB:AB, 0)),"","Y")</f>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" ref="O65:O72" si="22">IF(ISERROR(MATCH($A65,S:S, 0)),"","Y")</f>
+        <v/>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" ref="P65:P72" si="23">IF(ISERROR(MATCH($A65,V:V, 0)),"","Y")</f>
+        <v/>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" ref="Q65:Q72" si="24">IF(ISERROR(MATCH($A65,Y:Y, 0)),"","Y")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="6">
-        <f t="shared" ref="B66:B72" si="24">FIND("_",$A66)</f>
-        <v>4</v>
-      </c>
-      <c r="C66" s="6">
-        <f t="shared" ref="C66:D72" si="25">FIND("_",$A66,B66+1)</f>
+      <c r="B66">
+        <f t="shared" ref="B66:B72" si="25">FIND("_",$A66)</f>
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:D72" si="26">FIND("_",$A66,B66+1)</f>
         <v>9</v>
       </c>
-      <c r="D66" s="6">
-        <f t="shared" si="25"/>
+      <c r="D66">
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="E66" s="6" t="str">
-        <f t="shared" si="19"/>
+      <c r="E66" t="str">
+        <f t="shared" si="20"/>
         <v>WITH</v>
       </c>
-      <c r="F66" s="6">
-        <f t="shared" ref="F66:F72" si="26">FIND("_WITH_",$A66)+5</f>
+      <c r="F66">
+        <f t="shared" ref="F66:F72" si="27">FIND("_WITH_",$A66)+5</f>
         <v>14</v>
       </c>
-      <c r="G66" s="6">
-        <f t="shared" ref="G66:G72" si="27">FIND("~",SUBSTITUTE(A66,"_","~",LEN(A66)-LEN(SUBSTITUTE(A66,"_",""))))</f>
+      <c r="G66">
+        <f t="shared" ref="G66:G72" si="28">FIND("~",SUBSTITUTE(A66,"_","~",LEN(A66)-LEN(SUBSTITUTE(A66,"_",""))))</f>
         <v>22</v>
       </c>
-      <c r="H66" s="6" t="str">
-        <f t="shared" ref="H66:H72" si="28">MID(A66,1,FIND("_",A66)-1)</f>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H72" si="29">MID(A66,1,FIND("_",A66)-1)</f>
         <v>TLS</v>
       </c>
-      <c r="I66" s="6" t="str">
-        <f t="shared" ref="I66:I72" si="29">MID($A66, B66+1,C66-B66-1)</f>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I72" si="30">MID($A66, B66+1,C66-B66-1)</f>
         <v>KRB5</v>
       </c>
-      <c r="J66" s="6" t="str">
-        <f t="shared" ref="J66:J72" si="30">IF(OR(E66="anon",E66="with",E66="EXPORT"),"NULL",E66)</f>
-        <v>NULL</v>
-      </c>
-      <c r="K66" s="6" t="str">
+      <c r="J66" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K66" t="str">
         <f t="shared" ref="K66:K72" si="31">MID($A66, F66+1,G66-F66-1)</f>
         <v>RC4_128</v>
       </c>
-      <c r="L66" s="6" t="str">
+      <c r="L66" t="str">
         <f t="shared" ref="L66:L72" si="32">MID(A66, G66+1,10)</f>
         <v>MD5</v>
       </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O66" s="6" t="str">
+      <c r="N66" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P66" s="6" t="str">
+      <c r="O66" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Q66" s="6" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="6">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="C67" s="6">
+      <c r="B67">
         <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="D67" s="6">
-        <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f t="shared" si="19"/>
-        <v>WITH</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="D67">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="G67" s="6">
+      <c r="E67" t="str">
+        <f t="shared" si="20"/>
+        <v>WITH</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
-      <c r="H67" s="6" t="str">
-        <f t="shared" si="28"/>
+      <c r="H67" t="str">
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" si="29"/>
+      <c r="I67" t="str">
+        <f t="shared" si="30"/>
         <v>KRB5</v>
       </c>
-      <c r="J67" s="6" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL</v>
-      </c>
-      <c r="K67" s="6" t="str">
+      <c r="J67" t="str">
+        <f t="shared" si="14"/>
+        <v>KRB5</v>
+      </c>
+      <c r="K67" t="str">
         <f t="shared" si="31"/>
         <v>RC4_128</v>
       </c>
-      <c r="L67" s="6" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="32"/>
         <v>SHA</v>
       </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O67" s="6" t="str">
+      <c r="N67" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P67" s="6" t="str">
+      <c r="O67" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Q67" s="6" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5902,40 +5869,40 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="D68">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="19"/>
-        <v>WITH</v>
-      </c>
-      <c r="F68">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
+      <c r="E68" t="str">
+        <f t="shared" si="20"/>
+        <v>WITH</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
       <c r="G68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>RSA</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="31"/>
@@ -5946,19 +5913,19 @@
         <v>SHA</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Y</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5967,40 +5934,40 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="D69">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="19"/>
-        <v>WITH</v>
-      </c>
-      <c r="F69">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
+      <c r="E69" t="str">
+        <f t="shared" si="20"/>
+        <v>WITH</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
       <c r="G69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>RSA</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL</v>
+        <f t="shared" si="14"/>
+        <v>RSA</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="31"/>
@@ -6011,19 +5978,19 @@
         <v>SHA256</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Y</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6032,40 +5999,40 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="D70">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="19"/>
-        <v>WITH</v>
-      </c>
-      <c r="F70">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
+      <c r="E70" t="str">
+        <f t="shared" si="20"/>
+        <v>WITH</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
       <c r="G70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>RSA</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL</v>
+        <f t="shared" ref="J70:J72" si="33">IF(OR(E70="WITH",E70="EXPORT"),$I70,IF(E70="ANON","None",E70))</f>
+        <v>RSA</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="31"/>
@@ -6076,19 +6043,19 @@
         <v>SHA256</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Y</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6097,40 +6064,40 @@
         <v>26</v>
       </c>
       <c r="B71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="D71">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="19"/>
-        <v>WITH</v>
-      </c>
-      <c r="F71">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
+      <c r="E71" t="str">
+        <f t="shared" si="20"/>
+        <v>WITH</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
       <c r="G71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>RSA</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="30"/>
-        <v>NULL</v>
+        <f t="shared" si="33"/>
+        <v>RSA</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="31"/>
@@ -6141,60 +6108,60 @@
         <v>SHA256</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Y</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="D72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>DSS</v>
       </c>
       <c r="F72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="G72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>TLS</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>DH</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>DSS</v>
       </c>
       <c r="K72" t="str">
@@ -6206,19 +6173,19 @@
         <v>SHA</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6250,58 +6217,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,52 +6279,52 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,24 +6335,24 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,136 +6363,136 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
         <v>112</v>
       </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
       </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6533,13 +6500,13 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,13 +6514,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6561,111 +6528,111 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,13 +6640,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,13 +6654,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,83 +6668,83 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
